--- a/output/size_tables_tjmaxx.xlsx
+++ b/output/size_tables_tjmaxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDA\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE5791-17E1-45BC-8AF4-3731769E019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2733146-F456-4CD7-A89D-ED7A8DE9723D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="1695" windowWidth="12255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="64">
   <si>
     <t>General Size</t>
   </si>
@@ -117,89 +117,12 @@
     <t>44 / 45.5</t>
   </si>
   <si>
-    <t>0X</t>
-  </si>
-  <si>
-    <t>12W</t>
-  </si>
-  <si>
-    <t>42-44</t>
-  </si>
-  <si>
-    <t>1X</t>
-  </si>
-  <si>
-    <t>14W / 16W</t>
-  </si>
-  <si>
-    <t>44-46</t>
-  </si>
-  <si>
-    <t>35 / 37</t>
-  </si>
-  <si>
     <t>44 / 46</t>
   </si>
   <si>
-    <t>2X</t>
-  </si>
-  <si>
-    <t>18W / 20W</t>
-  </si>
-  <si>
-    <t>48-50</t>
-  </si>
-  <si>
-    <t>39 / 41</t>
-  </si>
-  <si>
-    <t>48 / 50</t>
-  </si>
-  <si>
-    <t>3X</t>
-  </si>
-  <si>
-    <t>22W / 24W</t>
-  </si>
-  <si>
-    <t>52-54</t>
-  </si>
-  <si>
     <t>50 / 52</t>
   </si>
   <si>
-    <t>43 / 45</t>
-  </si>
-  <si>
-    <t>52 / 54</t>
-  </si>
-  <si>
-    <t>4X</t>
-  </si>
-  <si>
-    <t>26W / 28W</t>
-  </si>
-  <si>
-    <t>56-58</t>
-  </si>
-  <si>
-    <t>54 / 56</t>
-  </si>
-  <si>
-    <t>47 / 49</t>
-  </si>
-  <si>
-    <t>56 / 58</t>
-  </si>
-  <si>
-    <t>여성 상의, 하의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여성 상의, 하의 - Plus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>28 / 30</t>
   </si>
   <si>
@@ -242,10 +165,6 @@
     <t>18 (EU 45) / 18.5 (EU 46)</t>
   </si>
   <si>
-    <t>남성 상의, 하의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Chest/Bust (inches)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -283,6 +202,38 @@
   </si>
   <si>
     <t>Neck (inches)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 반팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 긴바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반팔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,12 +323,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,6 +330,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,393 +618,893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>74</v>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="AB7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="AF7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="AM7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>70</v>
+      <c r="AN7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A15:E15"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
